--- a/biology/Histoire de la zoologie et de la botanique/Jonathan_Dwight/Jonathan_Dwight.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jonathan_Dwight/Jonathan_Dwight.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jonathan Dwight est un ornithologue  américain, né le 8 décembre 1858 à New York et mort le 22 février 1929 dans cette même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Jonathan et de Julia Lawrence née Hasbrouck. Après des études à Madison (New Jersey), puis à New York, il entre à l’université Harvard en 1876. Très tôt, à 14 ans, il se passionne pour les oiseaux et la récolte de leurs œufs. Il fréquente le Nuttall Ornithological Club de Cambridge et se lie alors d’amitié avec un groupe de jeunes ornithologues qui joueront un rôle considérable dans l’histoire de cette discipline aux États-Unis d'Amérique.
 C’est durant son service militaire, en 1889 où, outre l’apprentissage du tir qui lui servira pour l’étude des oiseaux, il commence à s’intéresser à la médecine et entre alors à l’école de médecine de l’université Columbia où il est diplômé en 1893.
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(Liste partielle)
 The Horned Larks of North America, The Auk, Vol. VII, pp. 138–158 (1890)
